--- a/config/config_example.xlsx
+++ b/config/config_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sibur\Python_scripts\VDR_validation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA02CD5D-E474-49F4-B32D-348902564471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2B0DF1-83E4-47DE-A759-3EA2240EF814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35595" yWindow="3720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3570" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_info" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Vendor 
 Поставщик</t>
@@ -210,9 +210,6 @@
 на бум. версию</t>
   </si>
   <si>
-    <t>Title list</t>
-  </si>
-  <si>
     <t>Critical doucuments
 важные документы</t>
   </si>
@@ -226,6 +223,144 @@
   </si>
   <si>
     <t>Remarks Примечания</t>
+  </si>
+  <si>
+    <t>Title list in</t>
+  </si>
+  <si>
+    <t>Title list out</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Contractor's Revision</t>
+  </si>
+  <si>
+    <t>Owner's Revision</t>
+  </si>
+  <si>
+    <t>Confidential Class</t>
+  </si>
+  <si>
+    <t>PLIP Code</t>
+  </si>
+  <si>
+    <t>Construction area</t>
+  </si>
+  <si>
+    <t>Building number</t>
+  </si>
+  <si>
+    <t>Contractor's Document Number</t>
+  </si>
+  <si>
+    <t>Owner's Document number</t>
+  </si>
+  <si>
+    <t>English Document Title</t>
+  </si>
+  <si>
+    <t>Russian Document Title</t>
+  </si>
+  <si>
+    <t>Reason for issue</t>
+  </si>
+  <si>
+    <t>No of Sheets</t>
+  </si>
+  <si>
+    <t>Doc. Type (VDR code)</t>
+  </si>
+  <si>
+    <t>TAG No.</t>
+  </si>
+  <si>
+    <t>Plant Unit</t>
+  </si>
+  <si>
+    <t>System (sub-system)</t>
+  </si>
+  <si>
+    <t>Vendor-SEI review TRM No</t>
+  </si>
+  <si>
+    <t>Planned TRM Date (1st Submission)</t>
+  </si>
+  <si>
+    <t>Forecast TRM Date</t>
+  </si>
+  <si>
+    <t>Actual TRM Date</t>
+  </si>
+  <si>
+    <t>Current Version</t>
+  </si>
+  <si>
+    <t>Critical doucuments</t>
+  </si>
+  <si>
+    <t>Key Documents</t>
+  </si>
+  <si>
+    <t>Contractor's Review Code</t>
+  </si>
+  <si>
+    <t>Contractor-Owner review TRM No</t>
+  </si>
+  <si>
+    <t>Planned Review TRM Date (1st Submission)</t>
+  </si>
+  <si>
+    <t>Actual Review TRM Date (Current Submission)</t>
+  </si>
+  <si>
+    <t>Owner's Review Code</t>
+  </si>
+  <si>
+    <t>Owner's CRS TRM No</t>
+  </si>
+  <si>
+    <t>Owner's CRS TRM Date</t>
+  </si>
+  <si>
+    <t>TM Remarks (Distribution Type)</t>
+  </si>
+  <si>
+    <t>Native File Required</t>
+  </si>
+  <si>
+    <t>Hard-Copy (Original) Required</t>
+  </si>
+  <si>
+    <t>Part of Final Vendor's Documentation</t>
+  </si>
+  <si>
+    <t>Contractor-Owner Soft-Copy TRM No (-.pdf &amp; native file, if applicable)</t>
+  </si>
+  <si>
+    <t>Actual SC TRM Date</t>
+  </si>
+  <si>
+    <t>Contractor-Owner hard-copy TRM No</t>
+  </si>
+  <si>
+    <t>Actual HC TRM Date</t>
+  </si>
+  <si>
+    <t>Planned HC TRM Date</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -553,245 +688,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="154.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
